--- a/public/TEAMS_INSPIRE.xlsx
+++ b/public/TEAMS_INSPIRE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Inspire\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEC4F7C3-A4DB-4EF5-9DF1-ADBCD9BB0900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017B90AC-F27E-4484-90E7-4479027005A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A62F6F36-C55B-4A52-84AF-CBCE7D2933A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{A62F6F36-C55B-4A52-84AF-CBCE7D2933A4}"/>
   </bookViews>
   <sheets>
     <sheet name="group 1" sheetId="1" r:id="rId1"/>
@@ -941,39 +941,12 @@
     <t>Yoghesh H S</t>
   </si>
   <si>
-    <t>Team 1</t>
-  </si>
-  <si>
-    <t>Team 2</t>
-  </si>
-  <si>
     <t>II BCA B</t>
   </si>
   <si>
-    <t>Team 4</t>
-  </si>
-  <si>
-    <t>Team 5</t>
-  </si>
-  <si>
-    <t>Team 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">team 6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">team 7 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CHANDANA M (MONOHAR) </t>
   </si>
   <si>
-    <t xml:space="preserve">team 8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">team 9 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Captain </t>
   </si>
   <si>
@@ -1023,14 +996,246 @@
   </si>
   <si>
     <t xml:space="preserve">Hema </t>
+  </si>
+  <si>
+    <r>
+      <t>Team 3 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ghostwave.c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Team 6 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nexus Network</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Team 1 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Electric Enigma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>team 7 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phantom Protocol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Team 5 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tech Titans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>team 8 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamic Dynamos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>team 9 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mavericks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Team 4 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spectral Cyphers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Team 2 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Binary Blasters)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1391,7 +1596,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1403,18 +1608,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1422,10 +1627,10 @@
         <v>111</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1436,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1476,7 +1681,7 @@
         <v>216</v>
       </c>
       <c r="B9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1548,7 +1753,7 @@
         <v>191</v>
       </c>
       <c r="B18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1564,7 +1769,7 @@
         <v>226</v>
       </c>
       <c r="B20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1572,7 +1777,7 @@
         <v>285</v>
       </c>
       <c r="B21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1620,7 +1825,7 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1660,7 +1865,7 @@
         <v>283</v>
       </c>
       <c r="B32" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1696,9 +1901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1028BE1-7A56-4862-B9C3-814740355F36}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1708,18 +1911,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1730,7 +1933,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1741,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1757,7 +1960,7 @@
         <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1765,7 +1968,7 @@
         <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1781,7 +1984,7 @@
         <v>271</v>
       </c>
       <c r="B9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1797,7 +2000,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1893,7 +2096,7 @@
         <v>156</v>
       </c>
       <c r="B23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1901,7 +2104,7 @@
         <v>286</v>
       </c>
       <c r="B24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1994,6 +2197,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2001,9 +2205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B2F40E-EEBA-4B14-B1AD-5445C0784F5E}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2014,18 +2216,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2033,10 +2235,10 @@
         <v>246</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2047,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2055,7 +2257,7 @@
         <v>251</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2079,7 +2281,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -2103,7 +2305,7 @@
         <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2223,7 +2425,7 @@
         <v>171</v>
       </c>
       <c r="B26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2231,7 +2433,7 @@
         <v>126</v>
       </c>
       <c r="B27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -2279,7 +2481,7 @@
         <v>261</v>
       </c>
       <c r="B33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -2295,11 +2497,12 @@
         <v>236</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2307,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3035CAE9-5CD5-4792-893F-738ED35C9DCD}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L19" activeCellId="1" sqref="E8 L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2320,18 +2523,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2342,7 +2545,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2353,7 +2556,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2377,7 +2580,7 @@
         <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2385,7 +2588,7 @@
         <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -2417,7 +2620,7 @@
         <v>266</v>
       </c>
       <c r="B12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2457,7 +2660,7 @@
         <v>181</v>
       </c>
       <c r="B17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2473,7 +2676,7 @@
         <v>287</v>
       </c>
       <c r="B19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2497,7 +2700,7 @@
         <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2513,7 +2716,7 @@
         <v>221</v>
       </c>
       <c r="B24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2529,7 +2732,7 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2613,9 +2816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD239AF-5D2D-4E28-B554-010186DCB812}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView topLeftCell="A24" zoomScale="176" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2626,18 +2827,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2648,7 +2849,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2659,7 +2860,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2667,7 +2868,7 @@
         <v>211</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2835,7 +3036,7 @@
         <v>186</v>
       </c>
       <c r="B26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2859,7 +3060,7 @@
         <v>256</v>
       </c>
       <c r="B29" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2919,8 +3120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4638CC-62F1-48B5-A8DE-B302CB07EC75}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2932,18 +3133,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2954,7 +3155,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2965,7 +3166,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2973,7 +3174,7 @@
         <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3037,7 +3238,7 @@
         <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -3053,7 +3254,7 @@
         <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3069,7 +3270,7 @@
         <v>241</v>
       </c>
       <c r="B17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -3101,7 +3302,7 @@
         <v>201</v>
       </c>
       <c r="B21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -3109,7 +3310,7 @@
         <v>231</v>
       </c>
       <c r="B22" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -3117,7 +3318,7 @@
         <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -3225,8 +3426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE766E41-21B3-4B55-8F9F-5E59E6E7FCCE}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3238,18 +3439,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3260,7 +3461,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3271,7 +3472,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3287,7 +3488,7 @@
         <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3327,7 +3528,7 @@
         <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3351,7 +3552,7 @@
         <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -3359,7 +3560,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3503,7 +3704,7 @@
         <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -3519,7 +3720,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3531,9 +3732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D647F49-2989-4401-B251-E30019C4337F}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3544,18 +3743,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3563,10 +3762,10 @@
         <v>206</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3577,7 +3776,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3606,10 +3805,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3625,7 +3824,7 @@
         <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3721,7 +3920,7 @@
         <v>276</v>
       </c>
       <c r="B22" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -3729,7 +3928,7 @@
         <v>131</v>
       </c>
       <c r="B23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -3837,8 +4036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E10EA2-B7A5-42AF-A668-C4C9233820F7}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:F24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3850,18 +4049,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3872,7 +4071,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3883,7 +4082,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3891,7 +4090,7 @@
         <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3931,7 +4130,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3963,7 +4162,7 @@
         <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -3971,7 +4170,7 @@
         <v>284</v>
       </c>
       <c r="B15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -4027,7 +4226,7 @@
         <v>141</v>
       </c>
       <c r="B22" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -4035,7 +4234,7 @@
         <v>176</v>
       </c>
       <c r="B23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -4059,7 +4258,7 @@
         <v>161</v>
       </c>
       <c r="B26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -4091,7 +4290,7 @@
         <v>196</v>
       </c>
       <c r="B30" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -4107,7 +4306,7 @@
         <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -4131,7 +4330,7 @@
         <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
